--- a/ccl/fccalcrpt/cim.xlsx
+++ b/ccl/fccalcrpt/cim.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="435" windowWidth="14295" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="7845" yWindow="435" windowWidth="14295" windowHeight="7020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="gplblmt.p" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>mgmsgmt.p</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,6 +634,22 @@
   <si>
     <t>-</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠料区,库存不足,出新PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠料区,库存不足,加快PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期去,库存不足,采购跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全区,库存足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G9" sqref="G9"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -1963,11 +1982,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="13.5"/>
@@ -2191,13 +2210,57 @@
         <v>17</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>7817</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>7818</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>7819</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>7820</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A65534">
       <formula1>"CH,US,TW"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B65534">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B65534">
       <formula1>1</formula1>
       <formula2>999999</formula2>
     </dataValidation>
